--- a/MILP/model_output/benders_cuts.xlsx
+++ b/MILP/model_output/benders_cuts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>iteration</t>
   </si>
@@ -49,6 +49,9 @@
     <t>{('Chiasso', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Aarau', 'Visp'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Visp', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}}</t>
   </si>
   <si>
+    <t>{('Aarau', 'Chiasso'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Chiasso', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Aarau', 'Visp'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Visp', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Baselwolf', 'Chiasso'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Chiasso', 'Baselwolf'): {'demand_dual': 1.0, 'capacity_dual': 1.0}}</t>
+  </si>
+  <si>
     <t>2025-11-26T03:42:53.967757</t>
   </si>
   <si>
@@ -73,7 +76,31 @@
     <t>2025-11-26T04:04:03.885089</t>
   </si>
   <si>
+    <t>2025-11-28T03:02:04.062878</t>
+  </si>
+  <si>
+    <t>2025-11-28T03:02:06.371159</t>
+  </si>
+  <si>
+    <t>2025-11-28T03:05:45.389877</t>
+  </si>
+  <si>
+    <t>2025-11-28T03:05:48.897434</t>
+  </si>
+  <si>
+    <t>2025-11-28T03:09:09.108533</t>
+  </si>
+  <si>
+    <t>2025-11-28T03:09:12.880625</t>
+  </si>
+  <si>
+    <t>2025-11-28T03:09:17.193899</t>
+  </si>
+  <si>
     <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"]]</t>
+  </si>
+  <si>
+    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"], ["Chiasso", "Baselwolf"]]</t>
   </si>
 </sst>
 </file>
@@ -435,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +516,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>233.1</v>
@@ -512,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -529,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -540,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>233.1</v>
@@ -563,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -574,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>233.1</v>
@@ -591,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>233.1</v>
@@ -614,7 +641,126 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>233.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>38234.46124547702</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>233.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>65756.07328262705</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>336.9240000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>277.3889999999924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>71067.76083747702</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/benders_cuts.xlsx
+++ b/MILP/model_output/benders_cuts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>iteration</t>
   </si>
@@ -22,94 +22,118 @@
     <t>cut_type</t>
   </si>
   <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>infeasibility_type</t>
+  </si>
+  <si>
+    <t>violated_constraints</t>
+  </si>
+  <si>
+    <t>affected_ods</t>
+  </si>
+  <si>
+    <t>recommendations</t>
+  </si>
+  <si>
+    <t>cut_form</t>
+  </si>
+  <si>
+    <t>od_constraints</t>
+  </si>
+  <si>
+    <t>rhs_value</t>
+  </si>
+  <si>
     <t>subproblem_cost</t>
   </si>
   <si>
-    <t>duals</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>problematic_ods</t>
-  </si>
-  <si>
-    <t>rhs</t>
+    <t>constant_term</t>
+  </si>
+  <si>
+    <t>flow_coefficients</t>
+  </si>
+  <si>
+    <t>frequency_coefficients</t>
+  </si>
+  <si>
+    <t>num_ods</t>
+  </si>
+  <si>
+    <t>objective_value</t>
+  </si>
+  <si>
+    <t>cut_value_at_current</t>
+  </si>
+  <si>
+    <t>expected_gap</t>
+  </si>
+  <si>
+    <t>feasibility</t>
   </si>
   <si>
     <t>optimality</t>
   </si>
   <si>
-    <t>feasibility</t>
+    <t>2025-11-28T19:07:38.141459</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:07:40.921890</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:07:44.541298</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:07:50.584397</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:07:58.779619</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:08:11.987706</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:08:25.075276</t>
+  </si>
+  <si>
+    <t>2025-11-28T19:08:38.203122</t>
+  </si>
+  <si>
+    <t>infeasibility_heuristic</t>
+  </si>
+  <si>
+    <t>[{"name": "GroupCapacity_Aarau_Chiasso", "type": "capacity", "utilization": 1.0000000000000262, "required": 147.0, "available": 146.99999999999616}, {"name": "GroupCapacity_Chiasso_Baselwolf", "type": "capacity", "utilization": 1.0000000000000002, "required": 115.36000000000067, "available": 115.36000000000065}]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[["Chiasso", "Baselwolf"], ["Aarau", "Chiasso"]]</t>
+  </si>
+  <si>
+    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"], ["Aarau", "Visp"], ["Visp", "Aarau"], ["Baselwolf", "Chiasso"], ["Chiasso", "Baselwolf"]]</t>
+  </si>
+  <si>
+    <t>["Reduce flow or increase frequency for Aarau \u2192 Chiasso (utilization: 100.0%)", "Reduce flow or increase frequency for Chiasso \u2192 Baselwolf (utilization: 100.0%)"]</t>
+  </si>
+  <si>
+    <t>frequency_capacity_ratio</t>
+  </si>
+  <si>
+    <t>total_flow_reduction</t>
+  </si>
+  <si>
+    <t>[{"origin": "Chiasso", "destination": "Baselwolf", "current_flow": 115.36000000000067, "current_freq": 1.4420000000000082, "cap_per_dep": 80.0, "required_freq": 1.4420000000000084, "min_freq": 1.5141000000000089, "constraint": "f[Chiasso,Baselwolf,Intermodal] &gt;= 1.51"}, {"origin": "Aarau", "destination": "Chiasso", "current_flow": 147.0, "current_freq": 1.8374999999999522, "cap_per_dep": 80.0, "required_freq": 1.8375, "min_freq": 1.929375, "constraint": "f[Aarau,Chiasso,Intermodal] &gt;= 1.93"}]</t>
   </si>
   <si>
     <t>{}</t>
-  </si>
-  <si>
-    <t>{('Chiasso', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Aarau', 'Visp'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Visp', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}}</t>
-  </si>
-  <si>
-    <t>{('Aarau', 'Chiasso'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Chiasso', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Aarau', 'Visp'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Visp', 'Aarau'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Baselwolf', 'Chiasso'): {'demand_dual': 1.0, 'capacity_dual': 1.0}, ('Chiasso', 'Baselwolf'): {'demand_dual': 1.0, 'capacity_dual': 1.0}}</t>
-  </si>
-  <si>
-    <t>2025-11-26T03:42:53.967757</t>
-  </si>
-  <si>
-    <t>2025-11-26T03:42:56.209786</t>
-  </si>
-  <si>
-    <t>2025-11-26T03:42:58.389770</t>
-  </si>
-  <si>
-    <t>2025-11-26T03:57:24.610922</t>
-  </si>
-  <si>
-    <t>2025-11-26T03:57:26.848320</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:03:34.336190</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:04:01.501474</t>
-  </si>
-  <si>
-    <t>2025-11-26T04:04:03.885089</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:02:04.062878</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:02:06.371159</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:05:45.389877</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:05:48.897434</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:09:09.108533</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:09:12.880625</t>
-  </si>
-  <si>
-    <t>2025-11-28T03:09:17.193899</t>
-  </si>
-  <si>
-    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"]]</t>
-  </si>
-  <si>
-    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"], ["Chiasso", "Baselwolf"]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,277 +513,288 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>501.2280000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>449.3160000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>391.6080000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>349.9020000000132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>57977.30703422711</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>57977.30703422711</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>57977.30703422711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45987.10779141204</v>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>57977.30703422711</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>57977.30703422711</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>57977.30703422711</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>233.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>38234.46124547702</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>38234.46124547702</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>233.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>38234.46124547702</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>233.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>233.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>38234.46124547702</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
-        <v>233.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>38234.46124547702</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13">
-        <v>233.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>65756.07328262705</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>336.9240000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>277.3889999999924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>71067.76083747702</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
+      <c r="K9">
+        <v>57977.30703422711</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>57977.30703422711</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>57977.30703422711</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/benders_cuts.xlsx
+++ b/MILP/model_output/benders_cuts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>iteration</t>
   </si>
@@ -40,30 +40,33 @@
     <t>cut_form</t>
   </si>
   <si>
+    <t>rhs_value</t>
+  </si>
+  <si>
     <t>od_constraints</t>
   </si>
   <si>
-    <t>rhs_value</t>
-  </si>
-  <si>
     <t>subproblem_cost</t>
   </si>
   <si>
+    <t>flow_coefficients</t>
+  </si>
+  <si>
+    <t>frequency_coefficients</t>
+  </si>
+  <si>
+    <t>num_ods</t>
+  </si>
+  <si>
+    <t>objective_value</t>
+  </si>
+  <si>
+    <t>dual_extraction_used</t>
+  </si>
+  <si>
     <t>constant_term</t>
   </si>
   <si>
-    <t>flow_coefficients</t>
-  </si>
-  <si>
-    <t>frequency_coefficients</t>
-  </si>
-  <si>
-    <t>num_ods</t>
-  </si>
-  <si>
-    <t>objective_value</t>
-  </si>
-  <si>
     <t>cut_value_at_current</t>
   </si>
   <si>
@@ -76,55 +79,64 @@
     <t>optimality</t>
   </si>
   <si>
-    <t>2025-11-28T19:07:38.141459</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:07:40.921890</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:07:44.541298</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:07:50.584397</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:07:58.779619</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:08:11.987706</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:08:25.075276</t>
-  </si>
-  <si>
-    <t>2025-11-28T19:08:38.203122</t>
+    <t>2025-11-28T20:44:29.700414</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:44:32.251969</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:44:34.875753</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:44:37.775830</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:44:40.338887</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:44:42.577492</t>
+  </si>
+  <si>
+    <t>2025-11-28T20:44:45.267451</t>
   </si>
   <si>
     <t>infeasibility_heuristic</t>
   </si>
   <si>
-    <t>[{"name": "GroupCapacity_Aarau_Chiasso", "type": "capacity", "utilization": 1.0000000000000262, "required": 147.0, "available": 146.99999999999616}, {"name": "GroupCapacity_Chiasso_Baselwolf", "type": "capacity", "utilization": 1.0000000000000002, "required": 115.36000000000067, "available": 115.36000000000065}]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[["Chiasso", "Baselwolf"], ["Aarau", "Chiasso"]]</t>
-  </si>
-  <si>
-    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"], ["Aarau", "Visp"], ["Visp", "Aarau"], ["Baselwolf", "Chiasso"], ["Chiasso", "Baselwolf"]]</t>
-  </si>
-  <si>
-    <t>["Reduce flow or increase frequency for Aarau \u2192 Chiasso (utilization: 100.0%)", "Reduce flow or increase frequency for Chiasso \u2192 Baselwolf (utilization: 100.0%)"]</t>
+    <t>[{"name": "GroupCapacity_Aarau_Chiasso", "type": "capacity", "utilization": 1.0000000000000064, "required": 147.0, "available": 146.99999999999906}]</t>
+  </si>
+  <si>
+    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"], ["Aarau", "Visp"], ["Visp", "Aarau"]]</t>
+  </si>
+  <si>
+    <t>[["Aarau", "Chiasso"]]</t>
+  </si>
+  <si>
+    <t>[["Aarau", "Chiasso"], ["Chiasso", "Aarau"], ["Aarau", "Visp"]]</t>
+  </si>
+  <si>
+    <t>["Reduce flow or increase frequency for Aarau \u2192 Chiasso (utilization: 100.0%)"]</t>
+  </si>
+  <si>
+    <t>total_flow_reduction</t>
   </si>
   <si>
     <t>frequency_capacity_ratio</t>
   </si>
   <si>
-    <t>total_flow_reduction</t>
-  </si>
-  <si>
-    <t>[{"origin": "Chiasso", "destination": "Baselwolf", "current_flow": 115.36000000000067, "current_freq": 1.4420000000000082, "cap_per_dep": 80.0, "required_freq": 1.4420000000000084, "min_freq": 1.5141000000000089, "constraint": "f[Chiasso,Baselwolf,Intermodal] &gt;= 1.51"}, {"origin": "Aarau", "destination": "Chiasso", "current_flow": 147.0, "current_freq": 1.8374999999999522, "cap_per_dep": 80.0, "required_freq": 1.8375, "min_freq": 1.929375, "constraint": "f[Aarau,Chiasso,Intermodal] &gt;= 1.93"}]</t>
+    <t>[{"origin": "Aarau", "destination": "Chiasso", "current_flow": 147.0, "current_freq": 1.8374999999999884, "cap_per_dep": 80.0, "required_freq": 1.8375, "min_freq": 1.929375, "constraint": "f[Aarau,Chiasso,Intermodal] &gt;= 1.93"}]</t>
+  </si>
+  <si>
+    <t>{"Aarau_Chiasso": 554.7516862499994, "Chiasso_Aarau": 537.5280969346194, "Visp_Aarau": 152.065055}</t>
+  </si>
+  <si>
+    <t>{"Aarau_Chiasso": -5.333333333333332, "Aarau_Visp": 160.38238458333285}</t>
+  </si>
+  <si>
+    <t>{"Aarau_Chiasso": 554.7516862499994}</t>
   </si>
   <si>
     <t>{}</t>
@@ -485,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,16 +558,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -567,24 +582,24 @@
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>333.9</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -596,205 +611,194 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3">
-        <v>501.2280000000011</v>
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="J4">
-        <v>449.3160000000012</v>
+      <c r="I4">
+        <v>289.8</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5">
-        <v>391.6080000000009</v>
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>68548.80195922701</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>68548.80195922701</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>-80654.03047120027</v>
+      </c>
+      <c r="R5">
+        <v>68548.801959227</v>
+      </c>
+      <c r="S5">
+        <v>1.455191522836685E-11</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6">
-        <v>349.9020000000132</v>
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>47827.08419992479</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>47827.08419992479</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>38491.31397117482</v>
+      </c>
+      <c r="R6">
+        <v>47827.08419992479</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>57977.30703422711</v>
-      </c>
-      <c r="L7">
+        <v>47311.01845375016</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>47311.01845375016</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>-34237.47942499974</v>
+      </c>
+      <c r="R7">
+        <v>47311.01845375016</v>
+      </c>
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>57977.30703422711</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>57977.30703422711</v>
-      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>57977.30703422711</v>
-      </c>
-      <c r="L8">
+        <v>45680.04849617482</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>45680.04849617482</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>-34237.47942500011</v>
+      </c>
+      <c r="R8">
+        <v>45680.04849617482</v>
+      </c>
+      <c r="S8">
         <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>57977.30703422711</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>57977.30703422711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9">
-        <v>57977.30703422711</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>57977.30703422711</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>57977.30703422711</v>
       </c>
     </row>
   </sheetData>
